--- a/Diablo_Adapters/Adapter_P_Keystone_v2/unit_BOM_Diablo_Adapter_P_Keystone_v2.xlsx
+++ b/Diablo_Adapters/Adapter_P_Keystone_v2/unit_BOM_Diablo_Adapter_P_Keystone_v2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/288ee42248ca7e9c/Documents/PDP-8/Add-On Boards/RK05 emulation/BOM/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/288ee42248ca7e9c/Documents/PDP-8/Add-On Boards/RK05 emulation/github/RK05_Emulator_Tester_System_v2/Diablo_Adapters/Adapter_P_Keystone_v2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="25" documentId="8_{58FF0321-EDC3-4793-8B15-51528E2C5065}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2C558488-4A10-4B08-8139-D890D1A55D53}"/>
+  <xr:revisionPtr revIDLastSave="45" documentId="8_{58FF0321-EDC3-4793-8B15-51528E2C5065}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A538FE49-69CF-4C6F-AC54-FD27F6C35E11}"/>
   <bookViews>
-    <workbookView xWindow="4670" yWindow="7390" windowWidth="29440" windowHeight="16200" xr2:uid="{1BC75658-7920-4F4C-A742-A785CA92FDB3}"/>
+    <workbookView xWindow="580" yWindow="10840" windowWidth="32950" windowHeight="15260" xr2:uid="{1BC75658-7920-4F4C-A742-A785CA92FDB3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="50">
   <si>
     <t>PCB, Diablo Adapter, Pin, Keystone</t>
   </si>
@@ -107,9 +107,6 @@
     <t>208 v0</t>
   </si>
   <si>
-    <t xml:space="preserve">208 v00, </t>
-  </si>
-  <si>
     <t>Sheet Metal Screw, #2, 1/4 inch, pan head</t>
   </si>
   <si>
@@ -168,6 +165,27 @@
   </si>
   <si>
     <t>TOTAL</t>
+  </si>
+  <si>
+    <t>Thumb Screw, 6-32 x 12mm, Royal Blue</t>
+  </si>
+  <si>
+    <t>https://www.aliexpress.us/item/3256803687287578.html</t>
+  </si>
+  <si>
+    <t>CONN PC PIN CIRC 0.060 DIA GOLD</t>
+  </si>
+  <si>
+    <t>Mill-Max Manufacturing Inc.</t>
+  </si>
+  <si>
+    <t>4357-0-00-15-00-00-03-0</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/en/products/detail/mill-max-manufacturing-corp/4357-0-00-15-00-00-03-0/5820224</t>
+  </si>
+  <si>
+    <t>Keystone is an alternate for Mill-Max 4357-0-00-15-00-00-03-0</t>
   </si>
 </sst>
 </file>
@@ -247,10 +265,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -570,10 +584,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B5F9187-9747-4B56-A62C-83A1132CC536}">
-  <dimension ref="B1:L10"/>
+  <dimension ref="B1:L12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J24" sqref="J24"/>
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -589,37 +603,37 @@
   <sheetData>
     <row r="1" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B1" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E1" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="F1" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="G1" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="F1" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="G1" s="4" t="s">
+      <c r="H1" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="I1" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="J1" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="K1" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="L1" s="2" t="s">
         <v>38</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="2" spans="2:12" x14ac:dyDescent="0.35">
@@ -688,7 +702,7 @@
         <v>1.4603513392857141</v>
       </c>
       <c r="L3" s="6">
-        <f t="shared" ref="L3:L8" si="0">B3*K3</f>
+        <f t="shared" ref="L3:L10" si="0">B3*K3</f>
         <v>5.8414053571428566</v>
       </c>
     </row>
@@ -703,7 +717,7 @@
         <v>11</v>
       </c>
       <c r="E4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F4" t="s">
         <v>2</v>
@@ -721,11 +735,11 @@
         <v>14</v>
       </c>
       <c r="K4" s="6">
-        <v>0.21800000000000003</v>
+        <v>0.29092500000000004</v>
       </c>
       <c r="L4" s="6">
         <f t="shared" si="0"/>
-        <v>0.21800000000000003</v>
+        <v>0.29092500000000004</v>
       </c>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.35">
@@ -786,9 +800,6 @@
       <c r="I6" t="s">
         <v>3</v>
       </c>
-      <c r="J6" t="s">
-        <v>23</v>
-      </c>
       <c r="K6" s="6">
         <v>1.2024999999999999</v>
       </c>
@@ -805,22 +816,22 @@
         <v>374</v>
       </c>
       <c r="E7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F7" t="s">
+        <v>2</v>
+      </c>
+      <c r="G7" t="s">
+        <v>2</v>
+      </c>
+      <c r="H7" t="s">
+        <v>2</v>
+      </c>
+      <c r="I7" t="s">
         <v>24</v>
       </c>
-      <c r="F7" t="s">
-        <v>2</v>
-      </c>
-      <c r="G7" t="s">
-        <v>2</v>
-      </c>
-      <c r="H7" t="s">
-        <v>2</v>
-      </c>
-      <c r="I7" t="s">
+      <c r="J7" t="s">
         <v>25</v>
-      </c>
-      <c r="J7" t="s">
-        <v>26</v>
       </c>
       <c r="K7" s="6">
         <v>7.5317250000000002E-2</v>
@@ -832,46 +843,102 @@
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B8" s="1">
-        <v>42</v>
+        <v>1</v>
       </c>
       <c r="C8" s="1">
-        <v>384</v>
+        <v>388</v>
       </c>
       <c r="E8" t="s">
-        <v>27</v>
-      </c>
-      <c r="F8" t="s">
-        <v>2</v>
-      </c>
-      <c r="G8" t="s">
-        <v>28</v>
-      </c>
-      <c r="H8" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="I8" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="J8" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="K8" s="6">
-        <v>0.8296</v>
+        <v>1.3133333333333332</v>
       </c>
       <c r="L8" s="6">
         <f t="shared" si="0"/>
-        <v>34.843200000000003</v>
-      </c>
-    </row>
-    <row r="10" spans="2:12" s="4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="E10" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="L10" s="7">
-        <f>SUM(L2:L8)</f>
-        <v>43.282664357142863</v>
+        <v>1.3133333333333332</v>
+      </c>
+    </row>
+    <row r="9" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B9" s="1">
+        <v>42</v>
+      </c>
+      <c r="C9" s="1">
+        <v>389</v>
+      </c>
+      <c r="E9" t="s">
+        <v>45</v>
+      </c>
+      <c r="F9" t="s">
+        <v>2</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>9</v>
+      </c>
+      <c r="J9" t="s">
+        <v>48</v>
+      </c>
+      <c r="K9" s="6">
+        <v>0.38764356349206347</v>
+      </c>
+      <c r="L9" s="6">
+        <f t="shared" si="0"/>
+        <v>16.281029666666665</v>
+      </c>
+    </row>
+    <row r="10" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B10" s="1">
+        <v>0</v>
+      </c>
+      <c r="E10" t="s">
+        <v>26</v>
+      </c>
+      <c r="G10" t="s">
+        <v>27</v>
+      </c>
+      <c r="H10" t="s">
+        <v>28</v>
+      </c>
+      <c r="I10" t="s">
+        <v>9</v>
+      </c>
+      <c r="J10" t="s">
+        <v>29</v>
+      </c>
+      <c r="K10" s="6">
+        <v>0.92167827380952383</v>
+      </c>
+      <c r="L10" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="G11" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="12" spans="2:12" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="E12" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="L12" s="7">
+        <f>SUM(L2:L9)</f>
+        <v>26.106752357142852</v>
       </c>
     </row>
   </sheetData>
